--- a/app/tables/scan_childvacc_825_pg4/forms/scan_childvacc_825_pg4/scan_childvacc_825_pg4.xlsx
+++ b/app/tables/scan_childvacc_825_pg4/forms/scan_childvacc_825_pg4/scan_childvacc_825_pg4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22340" windowHeight="10720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
   <si>
     <t>setting_name</t>
   </si>
@@ -241,16 +241,35 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -273,13 +292,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,13 +648,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -620,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -631,10 +698,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -652,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -660,13 +727,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -684,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -695,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -716,7 +786,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -724,16 +794,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -751,7 +818,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -762,13 +829,13 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -786,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -797,10 +864,10 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -818,7 +885,7 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -829,10 +896,10 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -850,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -858,13 +925,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -882,7 +952,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -893,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -914,7 +984,7 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -925,10 +995,10 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -946,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -957,13 +1027,13 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -981,7 +1051,7 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -992,10 +1062,10 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1013,7 +1083,7 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -1024,10 +1094,10 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1045,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -1056,10 +1126,10 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1077,7 +1147,7 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -1085,16 +1155,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="B60" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1112,7 +1179,7 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -1120,13 +1187,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="B64" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1144,7 +1214,7 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -1152,13 +1222,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="B68" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1176,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -1184,16 +1257,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="B72" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1211,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -1222,10 +1292,10 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1243,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -1254,10 +1324,10 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1275,7 +1345,7 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -1283,16 +1353,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="B84" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1310,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
@@ -1321,10 +1388,10 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1342,7 +1409,7 @@
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -1353,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1366,6 +1433,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1378,9 +1446,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1395,72 +1468,73 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
